--- a/scriptie planning.xlsx
+++ b/scriptie planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed\onderzoekverslag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -179,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -187,17 +187,168 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -514,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,24 +699,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -580,24 +731,24 @@
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -605,13 +756,13 @@
       </c>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -626,32 +777,32 @@
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
@@ -666,27 +817,27 @@
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -695,40 +846,41 @@
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
